--- a/src/test/resources/output/HypothyroidismAllergy.xlsx
+++ b/src/test/resources/output/HypothyroidismAllergy.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hypothyroidism" r:id="rId3" sheetId="1"/>
+    <sheet name="HypothyroidismAllergies" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/src/test/resources/output/HypothyroidismAllergy.xlsx
+++ b/src/test/resources/output/HypothyroidismAllergy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="324">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -1523,6 +1523,65 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/rajma-cucumber-and-carrot-salad-5559r</t>
+  </si>
+  <si>
+    <t>Recipe# 40603</t>
+  </si>
+  <si>
+    <t>Baingan Bhaja, Bengali Begun Bhaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 big brinjal (baingan / eggplant) slices    2 tsp chilli powder    1/2 tsp turmeric powder (haldi)    1 tbsp lemon juice    1/4 cup besan (bengal gram flour)    salt to taste    2 tsp oil for greasing and cooking    </t>
+  </si>
+  <si>
+    <t>, For baingan bhaja
+To make baingan bhaja, combine the chilli powder, turmeric powder, lemon juice, besan, salt and 2 tbsp of water in a deep bowl and mix well.
+Add the baingan slices and mix well. Keep aside.
+Heat a non-stick tava (griddle), grease it with ½ tsp of oil, arrange half the baingan slices and cook using ½ tsp of oil on both the sides till golden brown in colour.
+Repeat step 3 to make 1 more batch.
+Serve the baingan bhaja immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 43 cal
+Protein 1.5 g
+Carbohydrates 4.6 g
+Fiber 3 g
+Fat 2.1 g
+Cholesterol 0 mg
+Sodium 4.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baingan-bhaja-bengali-begun-bhaja-40603r</t>
+  </si>
+  <si>
+    <t>Recipe# 7468</t>
+  </si>
+  <si>
+    <t>Fenugreek and Mushroom Brown Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups finely chopped fenugreek (methi) leaves    1 cup sliced mushrooms (khumbh)    1 cup brown rice    2 tsp oil    2 tsp finely chopped green chillies    1 tsp finely chopped ginger (adrak)    1 tbsp finely chopped garlic (lehsun)    1 cup finely chopped onions    1/2 cup finely chopped tomatoes    1/2 cup brinjal (baingan / eggplant) cubes    1/2 cup surti papdi seeds (fresh vaal seeds)    1/2 tsp chilli powder    salt to taste    2 tbsp finely chopped coriander (dhania)    </t>
+  </si>
+  <si>
+    <t>, Heat the oil in a pressure cooker, add the green chillies, ginger, garlic, and onions and sauté on a medium flame for 2 minutes.
+Add the fenugreek leaves, mushrooms, tomatoes, brinjals, surti papadi seeds,and chilli powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the brown rice, 2¼ cups of hot water and salt, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 151 cal
+Protein 3.9 g
+Carbohydrates 27.6 g
+Fiber 3.3 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 19.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fenugreek-and-mushroom-brown-rice-7468r</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1712,10 +1771,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>34</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>35</v>
+        <v>313</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>2</v>
@@ -1724,33 +1783,33 @@
         <v>3</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>41</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>2</v>
@@ -1759,33 +1818,33 @@
         <v>3</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>2</v>
@@ -1794,33 +1853,33 @@
         <v>3</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>2</v>
@@ -1829,33 +1888,33 @@
         <v>3</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>2</v>
@@ -1864,33 +1923,33 @@
         <v>3</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>2</v>
@@ -1899,33 +1958,33 @@
         <v>3</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>2</v>
@@ -1934,33 +1993,33 @@
         <v>3</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>2</v>
@@ -1969,33 +2028,33 @@
         <v>3</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>90</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>2</v>
@@ -2004,33 +2063,33 @@
         <v>3</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>93</v>
+        <v>321</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>94</v>
+        <v>322</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>95</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>2</v>
@@ -2039,33 +2098,33 @@
         <v>3</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>2</v>
@@ -2074,33 +2133,33 @@
         <v>3</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>2</v>
@@ -2109,33 +2168,33 @@
         <v>3</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J16" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>2</v>
@@ -2144,33 +2203,33 @@
         <v>3</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s" s="0">
         <v>72</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="J17" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>2</v>
@@ -2179,33 +2238,33 @@
         <v>3</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>2</v>
@@ -2214,33 +2273,33 @@
         <v>3</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J19" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>2</v>
@@ -2249,33 +2308,33 @@
         <v>3</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s" s="0">
         <v>99</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>2</v>
@@ -2284,33 +2343,33 @@
         <v>3</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>2</v>
@@ -2319,33 +2378,33 @@
         <v>3</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J22" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>2</v>
@@ -2354,33 +2413,33 @@
         <v>3</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s" s="0">
         <v>72</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="J23" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>2</v>
@@ -2389,33 +2448,33 @@
         <v>3</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s" s="0">
         <v>72</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J24" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>2</v>
@@ -2424,33 +2483,33 @@
         <v>3</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="J25" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>2</v>
@@ -2459,33 +2518,33 @@
         <v>3</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J26" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>2</v>
@@ -2494,33 +2553,33 @@
         <v>3</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F27" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J27" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>2</v>
@@ -2529,33 +2588,33 @@
         <v>3</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J28" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>2</v>
@@ -2564,33 +2623,33 @@
         <v>3</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F29" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J29" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>2</v>
@@ -2599,33 +2658,33 @@
         <v>3</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="J30" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>2</v>
@@ -2634,33 +2693,33 @@
         <v>3</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="J31" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>2</v>
@@ -2669,33 +2728,33 @@
         <v>3</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="J32" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>2</v>
@@ -2704,33 +2763,33 @@
         <v>3</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J33" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>2</v>
@@ -2739,33 +2798,33 @@
         <v>3</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J34" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>2</v>
@@ -2774,33 +2833,33 @@
         <v>3</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s" s="0">
         <v>72</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I35" t="s" s="0">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="J35" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>2</v>
@@ -2809,33 +2868,33 @@
         <v>3</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F36" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="J36" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>2</v>
@@ -2844,33 +2903,33 @@
         <v>3</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="G37" t="s" s="0">
         <v>72</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J37" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K37" t="s" s="0">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>2</v>
@@ -2879,33 +2938,33 @@
         <v>3</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="J38" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>2</v>
@@ -2914,33 +2973,33 @@
         <v>3</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F39" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="J39" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>2</v>
@@ -2949,33 +3008,33 @@
         <v>3</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="F40" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="I40" t="s" s="0">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="J40" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>2</v>
@@ -2984,33 +3043,33 @@
         <v>3</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="J41" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>2</v>
@@ -3019,33 +3078,33 @@
         <v>3</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F42" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="J42" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>2</v>
@@ -3054,33 +3113,33 @@
         <v>3</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F43" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="J43" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>2</v>
@@ -3089,33 +3148,33 @@
         <v>3</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="I44" t="s" s="0">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="J44" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>2</v>
@@ -3124,33 +3183,33 @@
         <v>3</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s" s="0">
         <v>72</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="J45" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>2</v>
@@ -3159,33 +3218,33 @@
         <v>3</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s" s="0">
         <v>72</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J46" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K46" t="s" s="0">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>2</v>
@@ -3194,33 +3253,33 @@
         <v>3</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s" s="0">
         <v>72</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="J47" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>2</v>
@@ -3229,24 +3288,94 @@
         <v>3</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="G48" t="s" s="0">
         <v>72</v>
       </c>
       <c r="H48" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K49" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="I48" t="s" s="0">
+      <c r="I50" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="J48" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="K48" t="s" s="0">
+      <c r="J50" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K50" t="s" s="0">
         <v>311</v>
       </c>
     </row>

--- a/src/test/resources/output/HypothyroidismAllergy.xlsx
+++ b/src/test/resources/output/HypothyroidismAllergy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="324">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Nutrient values</t>
   </si>
   <si>
-    <t>Targetted morbid conditions (Diabeties/Hypertension/Hypothyroidism)</t>
+    <t>Targetted morbid conditions</t>
   </si>
   <si>
     <t>Recipe# 3883</t>
@@ -158,6 +158,42 @@
     <t>https://www.tarladalal.com/chana-tuvar-and-green-moong-dal-trevati-dal-38470r</t>
   </si>
   <si>
+    <t>Recipe# 40603</t>
+  </si>
+  <si>
+    <t>Baingan Bhaja, Bengali Begun Bhaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 big brinjal (baingan / eggplant) slices    2 tsp chilli powder    1/2 tsp turmeric powder (haldi)    1 tbsp lemon juice    1/4 cup besan (bengal gram flour)    salt to taste    2 tsp oil for greasing and cooking    </t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>, For baingan bhaja
+To make baingan bhaja, combine the chilli powder, turmeric powder, lemon juice, besan, salt and 2 tbsp of water in a deep bowl and mix well.
+Add the baingan slices and mix well. Keep aside.
+Heat a non-stick tava (griddle), grease it with ½ tsp of oil, arrange half the baingan slices and cook using ½ tsp of oil on both the sides till golden brown in colour.
+Repeat step 3 to make 1 more batch.
+Serve the baingan bhaja immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 43 cal
+Protein 1.5 g
+Carbohydrates 4.6 g
+Fiber 3 g
+Fat 2.1 g
+Cholesterol 0 mg
+Sodium 4.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baingan-bhaja-bengali-begun-bhaja-40603r</t>
+  </si>
+  <si>
     <t>Recipe# 5292</t>
   </si>
   <si>
@@ -165,9 +201,6 @@
   </si>
   <si>
     <t xml:space="preserve">3/4 cup toovar (arhar) dal    1/4 cup chana dal (split bengal gram)    1 cup chopped tomatoes    2 cups bottle gourd (doodhi / lauki) , cut into big pieces    1/4 tsp turmeric powder (haldi)    1 tsp cumin seeds (jeera)    1/2 tsp chopped garlic (lehsun)    1 tsp chopped green chillies    1 tsp grated ginger (adrak)    3/4 cup sliced onions    2 tsp oil    salt to taste    2 tbsp chopped coriander (dhania)    </t>
-  </si>
-  <si>
-    <t>10 mins</t>
   </si>
   <si>
     <t>25 mins</t>
@@ -301,9 +334,6 @@
     <t xml:space="preserve">3/4 cup brown rice    salt to taste    </t>
   </si>
   <si>
-    <t>20 mins</t>
-  </si>
-  <si>
     <t>, How to cook brown rice
 To cook brown rice, soak the brown rice in enough water for 30 minutes and drain well.
 Combine the brown rice along with 2 cups of water in a pressure cooker and pressure cook for 7 whistles.
@@ -387,6 +417,35 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/masoor-dal-easy-masoor-dal-recipe-40586r</t>
+  </si>
+  <si>
+    <t>Recipe# 7468</t>
+  </si>
+  <si>
+    <t>Fenugreek and Mushroom Brown Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups finely chopped fenugreek (methi) leaves    1 cup sliced mushrooms (khumbh)    1 cup brown rice    2 tsp oil    2 tsp finely chopped green chillies    1 tsp finely chopped ginger (adrak)    1 tbsp finely chopped garlic (lehsun)    1 cup finely chopped onions    1/2 cup finely chopped tomatoes    1/2 cup brinjal (baingan / eggplant) cubes    1/2 cup surti papdi seeds (fresh vaal seeds)    1/2 tsp chilli powder    salt to taste    2 tbsp finely chopped coriander (dhania)    </t>
+  </si>
+  <si>
+    <t>, Heat the oil in a pressure cooker, add the green chillies, ginger, garlic, and onions and sauté on a medium flame for 2 minutes.
+Add the fenugreek leaves, mushrooms, tomatoes, brinjals, surti papadi seeds,and chilli powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the brown rice, 2¼ cups of hot water and salt, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 151 cal
+Protein 3.9 g
+Carbohydrates 27.6 g
+Fiber 3.3 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 19.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fenugreek-and-mushroom-brown-rice-7468r</t>
   </si>
   <si>
     <t>Recipe# 22173</t>
@@ -1523,65 +1582,6 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/rajma-cucumber-and-carrot-salad-5559r</t>
-  </si>
-  <si>
-    <t>Recipe# 40603</t>
-  </si>
-  <si>
-    <t>Baingan Bhaja, Bengali Begun Bhaja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 big brinjal (baingan / eggplant) slices    2 tsp chilli powder    1/2 tsp turmeric powder (haldi)    1 tbsp lemon juice    1/4 cup besan (bengal gram flour)    salt to taste    2 tsp oil for greasing and cooking    </t>
-  </si>
-  <si>
-    <t>, For baingan bhaja
-To make baingan bhaja, combine the chilli powder, turmeric powder, lemon juice, besan, salt and 2 tbsp of water in a deep bowl and mix well.
-Add the baingan slices and mix well. Keep aside.
-Heat a non-stick tava (griddle), grease it with ½ tsp of oil, arrange half the baingan slices and cook using ½ tsp of oil on both the sides till golden brown in colour.
-Repeat step 3 to make 1 more batch.
-Serve the baingan bhaja immediately.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per serving
-Energy 43 cal
-Protein 1.5 g
-Carbohydrates 4.6 g
-Fiber 3 g
-Fat 2.1 g
-Cholesterol 0 mg
-Sodium 4.3 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/baingan-bhaja-bengali-begun-bhaja-40603r</t>
-  </si>
-  <si>
-    <t>Recipe# 7468</t>
-  </si>
-  <si>
-    <t>Fenugreek and Mushroom Brown Rice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cups finely chopped fenugreek (methi) leaves    1 cup sliced mushrooms (khumbh)    1 cup brown rice    2 tsp oil    2 tsp finely chopped green chillies    1 tsp finely chopped ginger (adrak)    1 tbsp finely chopped garlic (lehsun)    1 cup finely chopped onions    1/2 cup finely chopped tomatoes    1/2 cup brinjal (baingan / eggplant) cubes    1/2 cup surti papdi seeds (fresh vaal seeds)    1/2 tsp chilli powder    salt to taste    2 tbsp finely chopped coriander (dhania)    </t>
-  </si>
-  <si>
-    <t>, Heat the oil in a pressure cooker, add the green chillies, ginger, garlic, and onions and sauté on a medium flame for 2 minutes.
-Add the fenugreek leaves, mushrooms, tomatoes, brinjals, surti papadi seeds,and chilli powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
-Add the brown rice, 2¼ cups of hot water and salt, mix well and pressure cook for 4 whistles.
-Allow the steam to escape before opening the lid.
-Serve hot garnished with coriander.</t>
-  </si>
-  <si>
-    <t>Nutrient values (Abbrv) per serving
-Energy 151 cal
-Protein 3.9 g
-Carbohydrates 27.6 g
-Fiber 3.3 g
-Fat 2.8 g
-Cholesterol 0 mg
-Sodium 19.9 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/fenugreek-and-mushroom-brown-rice-7468r</t>
   </si>
 </sst>
 </file>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>312</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>313</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>2</v>
@@ -1783,33 +1783,33 @@
         <v>3</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>315</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>317</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>2</v>
@@ -1818,33 +1818,33 @@
         <v>3</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>2</v>
@@ -1853,33 +1853,33 @@
         <v>3</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>2</v>
@@ -1888,33 +1888,33 @@
         <v>3</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>2</v>
@@ -1923,33 +1923,33 @@
         <v>3</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>2</v>
@@ -1958,33 +1958,33 @@
         <v>3</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>2</v>
@@ -1993,33 +1993,33 @@
         <v>3</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>2</v>
@@ -2028,33 +2028,33 @@
         <v>3</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>318</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>319</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>2</v>
@@ -2063,33 +2063,33 @@
         <v>3</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>321</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>322</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>323</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>2</v>
@@ -2098,33 +2098,33 @@
         <v>3</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>2</v>
@@ -2133,33 +2133,33 @@
         <v>3</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="J15" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>2</v>
@@ -2168,33 +2168,33 @@
         <v>3</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J16" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>2</v>
@@ -2203,33 +2203,33 @@
         <v>3</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>2</v>
@@ -2238,33 +2238,33 @@
         <v>3</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>2</v>
@@ -2273,33 +2273,33 @@
         <v>3</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J19" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>2</v>
@@ -2308,33 +2308,33 @@
         <v>3</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J20" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>2</v>
@@ -2343,33 +2343,33 @@
         <v>3</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J21" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>2</v>
@@ -2378,33 +2378,33 @@
         <v>3</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G22" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="J22" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>2</v>
@@ -2413,33 +2413,33 @@
         <v>3</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J23" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>2</v>
@@ -2448,33 +2448,33 @@
         <v>3</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F24" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J24" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>2</v>
@@ -2483,33 +2483,33 @@
         <v>3</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F25" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J25" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>2</v>
@@ -2518,33 +2518,33 @@
         <v>3</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F26" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="J26" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>2</v>
@@ -2553,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F27" t="s" s="0">
         <v>37</v>
@@ -2562,24 +2562,24 @@
         <v>37</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>2</v>
@@ -2588,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s" s="0">
         <v>13</v>
@@ -2597,24 +2597,24 @@
         <v>13</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="J28" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>2</v>
@@ -2623,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F29" t="s" s="0">
         <v>37</v>
@@ -2632,24 +2632,24 @@
         <v>13</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="J29" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>2</v>
@@ -2658,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s" s="0">
         <v>37</v>
@@ -2667,24 +2667,24 @@
         <v>13</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="J30" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>2</v>
@@ -2693,33 +2693,33 @@
         <v>3</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F31" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="J31" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>2</v>
@@ -2728,33 +2728,33 @@
         <v>3</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J32" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>2</v>
@@ -2763,33 +2763,33 @@
         <v>3</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="J33" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>2</v>
@@ -2798,33 +2798,33 @@
         <v>3</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="J34" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>2</v>
@@ -2833,33 +2833,33 @@
         <v>3</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F35" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="I35" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="J35" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>2</v>
@@ -2868,33 +2868,33 @@
         <v>3</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F36" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="J36" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>2</v>
@@ -2903,33 +2903,33 @@
         <v>3</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="J37" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K37" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>2</v>
@@ -2938,33 +2938,33 @@
         <v>3</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="F38" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J38" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>2</v>
@@ -2973,33 +2973,33 @@
         <v>3</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F39" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="J39" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>2</v>
@@ -3008,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="F40" t="s" s="0">
         <v>13</v>
@@ -3017,24 +3017,24 @@
         <v>37</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="I40" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="J40" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>2</v>
@@ -3043,33 +3043,33 @@
         <v>3</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F41" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="J41" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>2</v>
@@ -3078,33 +3078,33 @@
         <v>3</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F42" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J42" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>2</v>
@@ -3113,7 +3113,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F43" t="s" s="0">
         <v>13</v>
@@ -3122,24 +3122,24 @@
         <v>37</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="J43" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>2</v>
@@ -3148,33 +3148,33 @@
         <v>3</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F44" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="I44" t="s" s="0">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="J44" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>2</v>
@@ -3183,33 +3183,33 @@
         <v>3</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="F45" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="J45" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>2</v>
@@ -3218,33 +3218,33 @@
         <v>3</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="J46" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K46" t="s" s="0">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>2</v>
@@ -3253,33 +3253,33 @@
         <v>3</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F47" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="J47" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>2</v>
@@ -3288,33 +3288,33 @@
         <v>3</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J48" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>2</v>
@@ -3323,33 +3323,33 @@
         <v>3</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F49" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="J49" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K49" t="s" s="0">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>2</v>
@@ -3358,25 +3358,25 @@
         <v>3</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F50" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="J50" t="s" s="0">
         <v>17</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
